--- a/uploads/FGWHHMG0N02_eco_report.xlsx
+++ b/uploads/FGWHHMG0N02_eco_report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,7 +468,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>9.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -478,120 +478,39 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-41.00</t>
+          <t>-47.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>18.00%</t>
+          <t>6.00%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Glayds  Bundotich</t>
+          <t>KD Totals</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>30.00</t>
+          <t>50.00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-29.00</t>
+          <t>-47.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.33%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Jane Gichohi</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>30.00</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>-27.00</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Victor Njogu</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>40.00</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>-38.00</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>5.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>KD Totals</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>15.00</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>150.00</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>-135.00</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>9.08%</t>
+          <t>6.00%</t>
         </is>
       </c>
     </row>
